--- a/liputan6.xlsx
+++ b/liputan6.xlsx
@@ -16,10 +16,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="2">
-    <numFmt numFmtId="164" formatCode="yyyy-mm-dd"/>
-    <numFmt numFmtId="165" formatCode="YYYY-MM-DD"/>
-  </numFmts>
+  <numFmts count="0"/>
   <fonts count="2">
     <font>
       <name val="Calibri"/>
@@ -58,12 +55,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -429,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G2"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -450,60 +446,153 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
+          <t>add_data</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
           <t>text</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>tag</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>title</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>keywords</t>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>keyword</t>
         </is>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="1" t="n">
-        <v>0</v>
+      <c r="A2" s="1" t="inlineStr">
+        <is>
+          <t>author</t>
+        </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>['Nefri Inge', 'Jul']</t>
-        </is>
-      </c>
-      <c r="C2" s="2" t="n">
-        <v>44408</v>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>Liputan6.com, Palembang - PT Pos Indonesia mintak ke masyarakat waspada ke pesen berantai yang janjike sejumlah hadiah dari PT Pos Indonesia. Mereka negeske kalu idak lagi buat program cak itu.
-Di dalem pesen berantai yang beredar, ado iming-iming untuk dapetke hadiah menarik, cak ponsel. Tapi masyarakat dimintak ngisike doken sejumlah pertanyaan dalem tautan yang disertakan.
-Waktu diklik dalem tautan yang dimaksudnyo, ado sejumlah pertanyaan pribadi dan rahasia yang harus dijawab. Cak namo lengkap, email, sampe jugo alamat dan nomor kartu debit atau kredit.
-Dalem postingan di akun Instagram resmi PT Pos Indonesia, @posindonesia.ig pada 28 Juli 2021, PT Pos Indonesia jelaske hal itu.
-"Dulur, kalu kamu ado yang dapet info cak ini 'Pos Indonesia bagi-bagi hadiah HP dll' cak di pucuk, ati-ati be kerno itu berita HOAX! Selalu cek dan ricek dulu, biar kamu idak jadi korban ngolake phishing"
-*Kalu nak tau informasi yang bener yang beredar, lajukela WhatsApp ke nomor 0811 9787 670 cuma dengan ngetikke bae kato kunci yang dipengenin.</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>{'Sumsel', 'Lihat Selengkapnya', 'Cek Fakta Liputan6.com', 'FIFA World Cup U-20', 'PON Papua', 'PON XX', 'Lawan Hoaks', 'Palembang', 'PON XX Papua 2021', 'FIFA World Cup 2022', 'HOAX!', 'PT Pos Indonesia', 'Bahasa Daerah', 'pt pos', 'Bahasa Palembang'}</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>Waspada Be Dulur, Pesen Berantai yang Janjike Hadiah dari PT Pos</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>[]</t>
+          <t>[['Sep'], ['Nofie Tessar', 'Okt'], ['Nov'], ['Adyaksa Vidi', 'Des'], ['Jan'], ['Cakrayuri Nuralam', 'Jan'], ['Andina Librianty', 'Mar'], ['Muhammad Radityo Priyasmoro', 'Mar'], ['Athika Rahma', 'Mar'], ['Mar'], ['Apr'], ['Apr'], ['Apr'], ['Adyaksa Vidi', 'Jul'], ['Nefri Inge', 'Jul']]</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr"/>
+      <c r="D2" t="inlineStr"/>
+      <c r="E2" t="inlineStr"/>
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr"/>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="inlineStr">
+        <is>
+          <t>dates</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr"/>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>[datetime.datetime(2021, 9, 13, 13, 9, 53, tzinfo=tzoffset(None, 25200)), datetime.datetime(2020, 10, 16, 19, 57, 45, tzinfo=tzoffset(None, 25200)), datetime.datetime(2020, 11, 5, 20, 5, 50, tzinfo=tzoffset(None, 25200)), datetime.datetime(2020, 12, 22, 7, 0, 12, tzinfo=tzoffset(None, 25200)), datetime.datetime(2021, 1, 5, 13, 59, 2, tzinfo=tzoffset(None, 25200)), datetime.datetime(2021, 1, 18, 18, 0, 8, tzinfo=tzoffset(None, 25200)), datetime.datetime(2021, 3, 5, 15, 50, 12, tzinfo=tzoffset(None, 25200)), datetime.datetime(2021, 3, 17, 14, 25, 24, tzinfo=tzoffset(None, 25200)), datetime.datetime(2021, 3, 19, 13, 15, 46, tzinfo=tzoffset(None, 25200)), datetime.datetime(2021, 3, 29, 9, 30, 27, tzinfo=tzoffset(None, 25200)), datetime.datetime(2021, 4, 1, 22, 44, 21, tzinfo=tzoffset(None, 25200)), datetime.datetime(2021, 4, 7, 14, 5, 54, tzinfo=tzoffset(None, 25200)), datetime.datetime(2021, 4, 21, 20, 0, tzinfo=tzoffset(None, 25200)), datetime.datetime(2021, 7, 31, 7, 0, 57, tzinfo=tzoffset(None, 25200)), datetime.datetime(2021, 7, 31, 20, 24, 32, tzinfo=tzoffset(None, 25200))]</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr"/>
+      <c r="E3" t="inlineStr"/>
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>add</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr"/>
+      <c r="C4" t="inlineStr"/>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>[{}, {}, {}, {}, {}, {}, {}, {}, {}, {}, {}, {}, {}, {}, {}]</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr"/>
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr"/>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="inlineStr">
+        <is>
+          <t>text</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr"/>
+      <c r="C5" t="inlineStr"/>
+      <c r="D5" t="inlineStr"/>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>['Liputan6.com, Jakarta Dalam kunjungan kerjanya pada awal September 2021 di Aceh, Menteri Sosial Tri Rismaharini menekankan penyelesaian pendistribusian bantuan sosial tunai yang masih terdapat kendala yang ditemukan di lapangan mengenai pendistribusian BST tersebut.\n\n"Masih ada masyarakat terdata penerima manfaat yang tidak hadir dalam sosialisasi mengenai penerimaan BST. Hasilnya, banyak penerima manfaat yang belum menerima BST tersebut." kata Risma.\n\nFakta di lapangan ditemukan bahwa kondisi medan yang harus dilalui para penerima manfaat cukup sulit dan jauh, ditambah lagi dengan usia penerima manfaat yang sudah cukup tua sehingga sulit untuk melakukan perjalanan jauh.\n\n"Sebagian masyarakat juga belum mengetahui adanya bantuan sosial tunai ini karena keterbatasan dalam mendapaatkan informasi, ini harus diinformasikan dan disosialisasikan," ujar Risma\n\nDia juga mengatakan bahwa penerima manfaat yang tidak hadir pada bulan pertama tidak akan diblokir, tetapi akan diberikan batas waktu selama 6 bulan ke depan. Nantinya, para pemerima manfaat bisa mengambil bantuan per 6 bulan, tanpa harus datang setiap bulannya.\n\nTerkait ini, PT Pos Indonesia (Persero) sebagai penyalur yang ditunjuk oleh Kemensos akan menyalurkan bantuan langsung secara door to door kepada masyarakat yang memang belum menerima bantuan sosial tunai tersebut.\n\n"Hal ini dilakukan untuk mempercepat penyaluran bantuan kepada masyarakat dan juga untuk mengurangi mobilitas dari masyarakat untuk mencegah terjadinya kerumunan massa di satu lokasi. Apalagi saat ini, PPKM darurat masih diberlakukan di beberapa daerah di Indonesia," ujar Direktur Utama PT Pos Indonesia (Persero) Faizal Rachmat Djoemadi.\n\nProses penyerahan bantuan yang dilakukan oleh petugas Pos indonesia nantinya akan didampingi langsung oleh dinas terkait.\n\nPos Indonesia berkomitmen untuk selalu memberikan layanan terbaik kepada masyarakat, khususnya di tengah kondisi pandemi saat ini. Pos Indonesia dan beberapa pihak akan terjun langsung ke masyarakat penerima manfaat termasuk beberapa aktivitas CSR.\n\n"Harapannya, semua masyarakat yang ekonominya terdampak Covid-19 dapat segera mendapat bantuan sosial tersebut, sehingga roda perekonomian kembali berputar dan akan mempercepat pemulihan ekonomi nasional," pungkas Faizal.', 'Liputan6.com, Jakarta Meningkatnya peran Usaha Mikro, Kecil &amp; Menengah (UMKM) dalam akselerasi perputaran perekonomian Indonesia melalui kontribusinya pada Produk Domestik Bruto (PDB), mendorong munculnya kebutuhan penunjang kegiatan berbasis teknologi untuk mempermudah pelaku usaha, terutama di tengah pandemi COVID-19. Sebagai upaya dan dukungan untuk para pelaku usaha khususnya UMKM, PT Telkom Indonesia (Persero) Tbk (Telkom) menghadirkan BONUM POS, yakni aplikasi kasir digital (point of sales) tanpa biaya untuk para pelaku UMKM di Indonesia.\n\nDiambil dari bahasa Latin, bonum berarti kebaikan tertinggi yang mana kehadirannya diharapkan mampu membantu para pelaku usaha UMKM dengan maksimal. Terkait peluncuran produk terbaru ini, Herdi Widiantoro, selaku founder Bonum menyampaikan bahwa saat ini, banyak aplikasi kasir digital yang tersedia di Indonesia, tetapi BONUM POS berusaha melihat dan mengerti kebutuhan UMKM akan aplikasi yang dapat membantu dan memudahkan pengelolaan bisnisnya. Salah satu kemudahan yang didapat adalah dalam hal pencatatan penjualan yang tersusun rapi dan lengkap, sehingga membantu pelaku bisnis dalam membuat strategi dan keputusan bisnis yang tepat sasaran.\n\n“Kehadiran BONUM POS merupakan bentuk dukungan TelkomGroup dalam membantu para pelaku bisnis lokal untuk menjalankan aktivitas bisnis secara digital tanpa perlu ribet. Ini sebagai langkah untuk merealisasikan UMKM untuk lebih mengoptimalkan teknologi digital. BONUM POS bisa dioperasikan hanya dengan menggunakan ponsel saja, di mana beragam operasional transaksi mulai dari pemasukan produk sampai dengan penjualan dapat dilakukan dengan mudah tanpa perlu menggunakan perangkat tambahan lagi,” jelas Herdi.', 'Liputan6.com, Jakarta - Menteri Sosial Juliari P Batubara dan Menteri Desa Pembangunan Daerah Tertinggal dan Transmigrasi (PDTT) Abdul Halim Iskandar didampingi Direktur Utama PT Pos Indonesia (Persero) Faizal R Djoemadi meninjau langsung penyaluran Bantuan Sosial Tunai (BST) tahap 8 tahun 2020 dan Bantuan Sosial Tunai (BST) Dana Desa di Kantor Desa Manyeti, Kecamatan Dawuan, Kabupaten Subang, Kamis (5/11/2020).\n\nPenyaluran BST yang dilaksanakan di Desa Manyeti merupakan penyaluran tahap 8 yang dilakukan oleh Pos Indonesia dengan nilai bantuan Rp 300.000 untuk setiap Keluarga Penerima Manfaat (KPM) dengan jumlah alokasi 317 KPM.\n\nDirektur Utama PT Pos Indonesia (Persero) Faizal R Djoemadi menyampaikan, pada tahap 1 sampai dengan tahap 7 sebelumnya untuk wilayah Jawa Barat memiliki alokasi 1.220.935 KPM dan telah terealisasi sebanyak 1.210.880 KPM atau 99,18%. Adapun penyaluran BST secara nasional sampai dengan tahap 6 telah tersalurkan sebanyak 98%.\n\nSelain BST, PT Pos Indonesia (Persero) juga menyalurkan Bantuan Sosial Tunai Dana Desa dari Kementerian Desa Pembangunan Daerah Tertinggal dan Transmigrasi (PDTT) sebanyak 136.384 KPM dan alokasi Provinsi Jawa Barat sebanyak 5.184 KPM.\n\nSkema Bantuan Sosial Tunai Dana Desa disiapkan Pemerintah di luar bansos dan bantuan lainnya bagi masyarakat terdampak pandemi Covid-19. Penyaluran Bantuan Sosial Tunai Dana Desa menurut data Kementerian Desa PDTT telah tersalur sebanyak 48,38 triliun (67,95%) di 33 provinsi.\n\nDi tengah pandemi Covid-19, adanya Bantuan Langsung Tunai Dana Desa bisa dimanfaatkan dalam penanggulangan Covid-19. Bersama Pos Indonesia, Pemerintah terus mempercepat penyaluran Bantuan Sosial Tunai Dana Desa sehingga dapat dimanfaatkan untuk penanggulangan Covid-19 di desa, sekaligus juga digunakan dalam stimulus Bantuan Sosial Tunai Dana Desa (BST-DD).\n\n** #IngatPesanIbu\n\nPakai Masker, Cuci Tangan Pakai Sabun, Jaga Jarak dan Hindari Kerumunan.\n\nSelalu Jaga Kesehatan, Jangan Sampai Tertular dan Jaga Keluarga Kita.', 'Liputan6.com, Jakarta - Beredar di media sosial akun yang mengatasnamakan PT Pos Indonesia. Salah satunya yang dibuat di Instagram.\n\nAkun tersebut bernama @posindonesia_ig. Dalam akun tersebut memakai logo PT Pos Indonesia sebagai foto profilnya.\n\nDi sana juga terdapat keterangan dalam bionya sebagai berikut:\n\n"Layanan Kurir, Logistik &amp; Jasa Keuangan. Info lengkap akses saluran resmi Pos Indonesia. Jl. Banda no. 30, Bandung 40115www.posindonesia.co.id/id/mypos"\n\nSelain itu juga terdapat sembilan postingan terkait informasi PT Pos Indonesia. Akun tersebut hingga saat ini sudah punya 74 followers.\n\nLalu benarkah akun tersebut merupakan akun resmi PT Pos Indonesia di Instagram?\n\n** #IngatPesanIbu\n\nPakai Masker, Cuci Tangan Pakai Sabun, Jaga Jarak dan Hindari Kerumunan.\n\nSelalu Jaga Kesehatan, Jangan Sampai Tertular dan Jaga Keluarga Kita.', 'Liputan6.com, Jakarta Pandemi masih melanda termasuk indonesia. mulai dari perkotaan hingga pedesaan. Hampir semua sektor terkena dampaknya, termasuk sektor kesehatan. Selain itu, pandemi juga membawa dampak pada sektor sosial, terutama ekonomi.\n\nHal itu tidak membuat pemerintah diam. Sejumlah program dibuat untuk membantu masyarakat yang terdampak pandemi, salah satunya pemberian Bantuan Sosial Tunai (BST) melalui Kementerian Sosial (Kemensos).\n\nBST merupakan bentuk jaring pengaman sosial kepada masyarakat kurang mampu dalam mengatasi krisis sosial dan ekonomi akibat pandemi. Untuk memperlancar pemberian bantuan itu, pemerintah menggandeng PT Pos Indonesia untuk mendistribusikannya.\n\nKini, pada 2020 PT Pos Indonesia telah menyalurkan bantuan tunai hingga 97,14%. Dengan moto, ‘Bersatu dan Bangkit’ berusaha mencapai penyaluran secara sempurna 100% sesuai dengan target yang diberikan oleh Kemensos.\n\nTahun 2021, pemerintah tetap mempercayakan PT Pos Indonesia untuk tetap menyalurkan program BST yang akan dilaksanakan di awal Januari 2021. BST akan diberikan pemerintah selama 4 bulan yang dimulai dari Januari sampai April 2021. Bantuan itu berupa uang sebesar 300 ribu perbulan dengan total Rp 12 triliun.', 'Untuk mengetahui kebenaran poster lowongan kerja itu, Cek Fakta Liputan6.com menghubungi Public Relation PT Pos Indonesia (Persero), Riyan Hardiyana. Dia memastikan kalau kantor pusat PT Pos Indonesia tidak membuat lowongan kerja seperti itu.\n\n"Kalau secara nasional, kami tidak ada, hanya khawatir ada penerimaan lokal di kantor pos di daerah," katanya pada Senin (18/1/2021).\n\nKemudian, Cek Fakta Liputan6.com memberi informasi kalau poster itu tersebar di Jawa Timur. Riyan pun menyarankan untuk menghubungi regional Jawa Timur.\n\nSelanjutnya, Cek Fakta Liputan6.com menghubungi Manajer Sekretariat Regional 7 Jawa Timur, Iwan Budi Santosa. Dia memastikan kalau itu bukan berada di Jawa Timur.\n\n"Beberapa UPT (Unit Pelayanan Terpadu) membuka lowongan sebagai tenaga kemitraan. Untuk yang ini (poster) ada di kantor pos Tanjung Pandan, bisa dilihat dari scar QR code-nya," ucap Iwan.\n\n"(Lowongan kerja seperti poster yang tersebar) tidak mesti setiap kantor ada," ujar Iwan menambahkan.', 'Liputan6.com, Jakarta - PT Bank Pembangunan Daerah Kalimantan Selatan (Bank Kalsel) dan PT Pos Indonesia menjalin kerja sama Pemanfaatan Jasa Layanan dan Produk. kerja sama ini ditandai dengan penandatanganan perjanjian oleh Direktur Utama Bank Kalsel Agus Syabarrudin dengan Direktur Utama PT Pos Indonesia Faizal Rochmad Djoemadi.\n\nAgus menuturkan, dengan adanya kerja sama ini diharapkan dapat mengoptimalkan pelayanan kepada nasabah. Kerja sama dengan PT Pos Indonesia ini juga merupakan upaya kami untuk kian optimalisasi layanan terhadap nasabah setia.\n\n"Selain itu, kerja sama ini harapannya dapat menjadi wujud pengembangan bisnis penyaluran Kredit Pensiunan Bank Kalsel. Didukung dengan jaringan PT Pos Indonesia yang tersebar lebih dari 4000 titik di Indonesia, tentu hal ini akan membuat produk dan layanan Bank Kalsel kian dikenal masyarakat luas,” tutur Agus dalam keterangan tertulis, Jumat (5/3/2021).\n\nLebih lanjut, Agus menyampaikan kerjasama ini diharapkan mampu mendukung perluasan pemberian layanan Bank Kalsel di daerah - daerah yang tidak terdapat jaringan kantor Bank Kalsel.\n\nKerja sama ini juga diharapkan bisa mengoptimalkan potensi pembayaran pajak dan retribusi daerah maupun pembayaran lainnya di Kalimantan Selatan yang telah dikelola oleh Bank Kalsel.\n\n"Nasabah setia Bank Kalsel bisa melakukan pembayaran di gerai PT Pos Indonesia terdekat, sehingga Bank Kalsel bisa menjangkau nasabah secara lebih luas tanpa harus membuka kantor cabang atau kantor cabang pembantu,” pungkas Agus.\n\n**Ibadah Ramadan makin khusyuk dengan ayat-ayat ini.', 'Liputan6.com, Jakarta - Wakil Presiden Ma\'ruf Amin berharap PT Pos Indonesia mendukung Gerakan Nasional Wakaf Uang (GNWU) dengan menjadi kanal penerimaan wakaf agar memudahkan masyarakat untuk menyerahkan wakafnya.\n\n"Jadi saya kira ini merupakan kanal yang sangat efektif, sehingga masyarakat di mana-mana bisa berwakaf melalui PT Pos," kata Ma\'ruf usai menerima audiensi jajaran Direksi PT Pos Indonesia (Persero), melalui siaran pers diterima, Rabu (17/3/2021).\n\nMa\'ruf pun meminta kepada PT Pos untuk berkoordinasi lebih lanjut dengan Komite Nasional Ekonomi dan Keuangan Syariah (KNEKS) dan Badan Wakaf Indonesia (BWI) guna membahas kerja sama yang dapat dilakukan.\n\n"Maka nanti saya minta PT Pos untuk berkomunikasi dengan Badan Eksekutif KNEKS yang juga memang bekerjasama dengan Badan Wakaf Indonesia," ucapnya.\n\nMa\'ruf berharap, keterlibatan PT Pos, selain menjadi partisipasi yang sangat bermanfaat juga akan bernilai ibadah.\n\n"Mudah-mudahan keikutsertaan Kantor Pos ini selain juga merupakan satu partisipasi yang sangat besar manfaatnya, mudah-mudahan juga menjadi ibadah," ungkap Ma\'ruf Amin.', 'Liputan6.com, Jakarta - Menteri BUMN Erick Thohir mengangkat perempuan sebagai direktur dalam jajaran direksi PT Pos Indonesia (Persero) sekaligus melakukan perubahan nomenklatur.\n\n"Menteri Badan Usaha Milik Negara (BUMN) Erick Thohir merubah nomenklatur, melakukan pengalihan tugas dan menambah nomenklatur Direksi PT Pos Indonesia (Persero) dalam Rapat Umum Pemegang Saham (RUPS)," ujar Pelaksana Operasi Harian (POH) Corporate Secretary Pos Indonesia Moko Mahadianto, dikutip dari Antara, Jumat (19/3/2021).\n\nSelanjutnya sesuai dengan keputusan Menteri BUMN tersebut, lanjut dia, Menteri Erick Thohir mengangkat Siti Choiriana sebagai Direktur Bisnis Kurir dan Logistik PT Pos Indonesia (Persero) yang baru.\n\nSiti Choiriana lahir di Magetan, 28 Mei 1970. Sarjana Teknik Elektro dan Magister Manajemen Teknologi lulusan Institut Teknologi Sepuluh November (ITS) Surabaya ini, sebelumnya menjabat sebagai Direktur Consumer Service Telkom Indonesia. Wanita yang akrab disapa Ana ini pernah meraih penghargaan platinum Anugerah Kartini BUMN 2014.\n\nBerdasarkan Surat Keputusan (SK) Menteri Badan Usaha Milik Negara nomor SK-91/MBU/03/2021 tanggal 18 Maret 2021 tentang Perubahan Nomenklatur Jabatan, Pengalihan Tugas dan Pengangkatan Anggota-Anggota Direksi Perusahaan Perseroan (Persero) PT Pos Indonesia, Menteri Erick Thohir mengubah nomenklatur, melakukan pengalihan tugas direktur dan menambah satu nomenklatur, yakni direktur operasi dan teknologi informasi.\n\nDalam surat tersebut, Erick memutuskan mengubah tiga nomenklatur jabatan anggota-anggota direksi PT Pos Indonesia, antara lain direktur kurir dan logistik menjadi direktur bisnis kurir dan logistik, direktur jaringan dan layanan keuangan menjadi direktur bisnis jaringan dan layanan keuangan, dan direktur keuangan menjadi direktur keuangan dan manajemen risiko.\n\nMenteri Erick melakukan pengalihan tugas Hariadi dari direktur kurir dan logistik menjadi direktur operasi dan teknologi informasi, Charles Sitorus dari direktur Jaringan dan layanan keuangan menjadi direktur bisnis jaringan dan layanan keuangan.\n\nKemudian Erick juga melakukan pengalihan tugas Endy Pattia Rahmadi Abdurrahman dari direktur keuangan menjadi direktur keuangan dan manajemen risiko.\n\nSelengkapnya susunan nomenklatur anggota Direksi PT Pos Indonesia ini, sebagai berikut:\n\n- Direktur Utama : Faizal Rochmad Djoemadi\n\n- Direktur Bisnis Jaringan dan Layanan Keuangan : Charles Sitorus\n\n- Direktur Keuangan dan Manajemen Risiko : Endy Pattia Rahmadi Abdurrahman\n\n- Direktur Operasi dan Teknologi Informasi : Hariadi\n\n- Direktur Kelembagaan : Nezar Patria\n\n- Direktur Bisnis Kurir dan Logistik : Siti Choiriana\n\n- Direktur Sumber Daya Manusia dan Umum : Tonggo Marbun', 'Liputan6.com, Jakarta - Pemerintah terus mengalokasikan Anggaran Penanganan Covid-19 dan Program Pemulihan Ekonomi Nasional (PC-PEN) pada tahun 2021 yang mencapai Rp 699,4 triliun atau sekitar USD49,6 miliar.\n\nProgram tersebut mencakup sektor kesehatan dan perlindungan sosial, dukungan UMKM dan pembiayaan perusahaan, serta insentif bisnis.\n\nAdapun jumlah penerima manfaat Bantuan Sosial (Bansos) Tunai yang telah disalurkan melalui PT Pos telah mencapai 18,8 juta penerima.\n\nMenko Perekonomian Airlangga hartanto mengatakan Sinergi dan koordinasi kebijakan ekonomi dinilai mampu mempercepat pemulihan ekonomi sekaligus memanfaatkan momentum transformasi ekonomi.\n\n“Pemerintah akan fokus memulihkan kepercayaan konsumen dengan memberlakukan pembatasan kegiatan masyarakat (PPKM) berbasis mikro dan vaksinasi. Pemerintah juga berkomitmen untuk melanjutkan dana Penanganan Covid-19 dan Pemulihan Ekonomi Nasional (PCPEN). Untuk tahun ini, Pemerintah mengalokasikan Rp 619,33 triliun” kata Airlangga dikutip Senin (29/3/2021).\n\nAlokasi dana tersebut mencakup program bansos tunai yang disalurkan oleh PT Pos Indonesia (Persero).\n\nSementara itu, Dirut PT Pos Indonesia (Persero) Faizal Rahmad Djoemadi mengatakan bahwa Bantuan Sosial Tunai adalah sebuah intrumen penting memulihkan ekonomi akibat pandemi covid 19.\n\nPT Pos Indonesia bukan hanya sekedar memberikan penawaran jasa untuk distribusi tetapi juga kerja sosial dan pelayan masyarakat.\n\n“BST ini penting karena merupakan program perlindungan sosial dan pemulihan ekonomi kerakyatan. Kita memastikan 100 persen sampai ke tangan KPM. Tim satgas bekerja keras dalam memonitor penyaluran bantuan”, kata Faizal.\n\nProses pendistribusian bantuan sosial yang panjang tentu menyita sumber daya dan menjadi tantangan tersendiri. PT Pos Indonesia (Persero) perlu melakukan perencanaan transisi dalam memprioritaskan proses penyaluran BST.\n\nPT Pos Indonesia terus mendukung usaha percepatan pemulihan ekonomi, lebih cepat, lebih baik.\n\n"Kami mendukung program-program dan kebijakan dari pemerintah dalam memperkuat kembali ekonomi nasional”, pungkas Faizal.', 'Liputan6.com, Jakarta - Komitmen PT Pos Indonesia mengawal distribution Bantuan Sosial Tunai (BST) tidak main-main.\n\nBagi keluarga penerima manfaat, diharapkan BST tidak disalahgunakan. Dalam imbauannya, PT Pos mengingatkan perihal apa saja yang boleh dan tidak boleh digunakan BST.\n\nPT Pos mengimbau agar BST tidak digunakan untuk membeli rokok, obat-obatan terlarang dan minuman keras. Yang jelas BST harus digunakan secara bijaksana dan bertanggungjawab.\n\nPT Pos Indonesia juga memastikan, BST senilai 300 ribu rupiah tidak ada potongan. Salam Bersatu untuk bangkit.', 'Liputan6.com, Jakarta Pandemi Covid-19 menjadi momentum untuk meningkatkan inklusi dan literasi keuangan di Indonesia. Presiden Joko Widodo telah menargetkan indeks inklusi keuangan nasional 90% pada 2024.\n\nDirektur Jenderal Aplikasi Informatika, Kementerian Komunikasi dan Informatika RI, Semuel Abrijani Pangerapan mengatakan untuk mencapai target inklusi keuangan Indonesia sebesar 90 persen, pemerintah tidak akan bekerja sendiri. Akan selalu ada kolaborasi yang terus didorong baik antar kementerian atau lembaga, sektor pribadi, dan masyarakat.\n\n"Ada tren peningkatan inklusi keuangan Indonesia. Pada 2016 meningkat 67,8%, 2019 meningkat 76,2%, dan 2024 ditargetkan menjadi 90%," kata Semuel saat menjadi keynote speaker dalam webinar Katadata dengan tema Peran Pos Indonesia dalam Inklusi Keuangan di Era Digital, Rabu (7/3/2021).\n\nMenurut Semuel, pemerintah membuka peluang sebesar-besarnya bagi pemain baru, tidak terkecuali bila PT Pos ingin berpartisipasi dalam penyediaan layanan di sektor keuangan digital.\n\nDirektur Utama PT Pos Indonesia (Persero) Faizal R Djoemadi mengatakan PT Pos optimistis dapat berpartisipasi untuk meningkatkan indeks inklusi keuangan seperti yang ditargetkan pemerintah. PT Pos melihat potensi pasar finansial inklusi di Indonesia.\n\nIa menjelaskan, data survei tahun 2017, sekitar 49% penduduk Indonesia yang memiliki rekening bank. Data itu saat ini meningkat menjadi 53%.\n\n"Sedangkan kalau kita lihat dunia, rata-rata orang yang punya akun keuangan itu sudah 80 persen, artinya Indonesia sebenarnya tertinggal. Banyak sekali orang yang tidak terhubung dengan sistem keuangan," kata Faizal.\n\nIa menuturkan, terdapat kesenjangan antara target inklusi keuangan sebesar 90% dengan pengguna sistem keuangan saat ini yang berjumlah 50 hingga 60 persen.\n\n"Gap sekitar 30%. PT Pos siap menyediakan sistem agar masyarakat yang belum terhubung sistem keuangan menjadi terhubung," tutur Faizal.\n\nIa menjelaskan, PT Pos memiliki rekam jejak dalam sistem keuangan. PT Pos pernah tiga kali mempunyai bank, yaitu di masa Belanda Bank Tabungan Pos yang kemudian pada tahun 1959 berubah menjadi BTN, Bank Pos yang merupakan kerja sama dengan Rajawali namun dilikuidasi pada 1998-1999 saat krisis moneter, dan terakhir Bank Mantap Mandiri Taspen Pos. Namun PT Pos keluar dari Bank tersebut pada 2017.\n\n"Pos punya sejarah panjang di jasa keuangan. Sejak berdirinya Pos 275 tahun yang lalu, salah satu tugas pos yang didirikan pada jaman Belanda, mengirimkan uang dari Belanda ke Indonesia atau sebaliknya, atau mengirimkan uang dari Batavia ke seluruh penjuru tanah air. Kami bukan pemain baru di jasa keuangan. PT Pos sangat optimistis dan sangat percaya diri ketika ingin membantu pemerintah dalam menutup gap tersebut," tuturnya.\n\nUntuk mengembangkan inklusi keuangan, PT Pos akan menyasar target sesuai dengan karakter PT Pos. Target itu adalah masyarakat di daerah tertinggal, masyarakat di perbatasan, masyarakat di pulau terluar, usaha mikro kecil dan menengah (UMKM), kelompok masyarakat penyandang masalah kesejahteraan sosial, pekerja migran Indonesia, dan kelompok pelajar/mahasiswa/pemuda.\n\nIa menambahkan, PT Pos memiliki strategi untuk mencapai target tersebut, yaitu digital transporing melalui pos giro mobile, dan interaksi fisik melalui layanan di kantor pos. Saat ini jumlah kantor pos di seluruh Indonesia sejumlah 8.400 kantor. PT Pos juga dibantu dengan 64 ribu agen pos jasa keuangan seperti BRILink.\n\nAgar lebih intensif dalam pengembangan inklusi keuangan, PT Pos akan fokus pada payment dan remiten (menerima semua jenis pembayaran, listrik, pulsa, dan PBB), menyediakan rekening simpanan dengan aplikasi pos giro mobile, dan layanan keuangan yang terintegrasi.', 'Liputan6.com, Jakarta Tiap 21 April kita memperingati Hari Kartini yang bertepatan dengan hari lahir pahlawan nasional perempuan yang terkenal atas idenya dalam mencetuskan emansipasi wanita di Indonesia, Raden Ajeng Kartini.\n\nPahlawan perempuan kelahiran Jepara ini identik dengan kata-kata bijaknya yang relevan dengan kehidupan, mulai dari emansipasi wanita, pendidikan, perjuangan, hingga perihal cinta.\n\nPT Pos Indonesia mengucapkan selamat Hari Kartini kepada seluruh perempuan hebat di Indonesia sebagai penerus sosok Kartini yang inspiratif serta menjadi tonggak awal perjuangan hak kesetaraan untuk perempuan di Nusantara.\n\nLewat pendidikan, Kartini bisa mengangkat derajat perempuan. Pendidikan juga bisa menyadarkan masyarakat tentang pentingnya peran perempuan dalam membangun peradaban.\n\nBerikut video spesial Hari Kartini PT Pos Indonesia untuk seluruh perempuan hebat di Indonesia.\n\n(*)', 'Liputan6.com, Jakarta - PT Pos Indonesia meminta masyarakat mewaspadai pesan berantai yang menjanjikan sejumlah hadiah dari PT Pos Indonesia. Mereka menegaskan tidak sedang membuat program seperti itu.\n\nDalam pesan berantai yang beredar terdapat iming-iming untuk mendapatkan hadiah menarik seperti smartphone. Namun masyarakat diminta mengisi dahulu sejumlah pertanyaan dalam tautan yang disertakan.\n\nSaat diklik dalam tautan yang dimaksud terdapat sejumlah pertanyaan pribadi dan rahasia yang harus dijawab. Seperti nama lengkap, email, hingga alamat dan nomor kartu debit atau kredit.\n\nDalam postingan di akun Instagram resmi, @posindonesia.ig pada 28 Juli 2021, PT Pos Indonesia menjelaskan hal tersebut.\n\n"Sahabat, kalau kamu ada yang dapet info tentang \'Pos Indonesia bagi-bagi hadiah HP dll\' kaya di atas, hati-hati ya karena itu berita HOAX! Selalu cek dan ricek dulu, supaya kamu enggak jadi korban penipuan phishing"\n\nView this post on Instagram A post shared by Official Account Pos Indonesia (@posindonesia.ig)\n\n* Untuk mengetahui kebenaran informasi yang beredar, silakan WhatsApp ke nomor 0811 9787 670 hanya dengan ketik kata kunci yang diinginkan.', 'Liputan6.com, Palembang - PT Pos Indonesia mintak ke masyarakat waspada ke pesen berantai yang janjike sejumlah hadiah dari PT Pos Indonesia. Mereka negeske kalu idak lagi buat program cak itu.\n\nDi dalem pesen berantai yang beredar, ado iming-iming untuk dapetke hadiah menarik, cak ponsel. Tapi masyarakat dimintak ngisike doken sejumlah pertanyaan dalem tautan yang disertakan.\n\nWaktu diklik dalem tautan yang dimaksudnyo, ado sejumlah pertanyaan pribadi dan rahasia yang harus dijawab. Cak namo lengkap, email, sampe jugo alamat dan nomor kartu debit atau kredit.\n\nDalem postingan di akun Instagram resmi PT Pos Indonesia, @posindonesia.ig pada 28 Juli 2021, PT Pos Indonesia jelaske hal itu.\n\n"Dulur, kalu kamu ado yang dapet info cak ini \'Pos Indonesia bagi-bagi hadiah HP dll\' cak di pucuk, ati-ati be kerno itu berita HOAX! Selalu cek dan ricek dulu, biar kamu idak jadi korban ngolake phishing"\n\n*Kalu nak tau informasi yang bener yang beredar, lajukela WhatsApp ke nomor 0811 9787 670 cuma dengan ngetikke bae kato kunci yang dipengenin.']</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr"/>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="inlineStr">
+        <is>
+          <t>tag</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr"/>
+      <c r="C6" t="inlineStr"/>
+      <c r="D6" t="inlineStr"/>
+      <c r="E6" t="inlineStr"/>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>[{'Jokowi', 'COVID-19', 'Bansos Tunai', 'PT Pos Indonesia', 'SEJARAH HARI INI', 'HUT TNI', 'Gempa Hari Ini', 'KPK'}, {'INFO LOWONGAN KERJA', 'Aplikasi PeduliLindungi', 'Tes SKD CPNS', 'PPN Naik', 'PT Telkom Indonesia', 'Kartu Prakerja', 'BONUM POS', 'Telkom', 'PPKM diperpanjang', 'Aplikasi BONUM POS'}, {'Lihat Selengkapnya', 'Jokowi', 'kemensos', 'COVID-19', 'PT Pos Indonesia', 'Penyaluran BST', 'SEJARAH HARI INI', 'HUT TNI', 'Gempa Hari Ini', 'Kementerian Desa PDTT', 'KPK'}, {'Lihat Selengkapnya', 'Cek Fakta Liputan6.com', 'Pos Indonesia', 'Hoaks', 'COVID-19', 'Vaksin Covid-19', 'PT Pos Indonesia', 'Cek Fakta', 'Hoax'}, {'Lihat Selengkapnya', 'Jokowi', 'Pos Indonesia', 'kemensos', 'COVID-19', 'BST', 'SEJARAH HARI INI', 'Advertorial Gov', 'HUT TNI', 'Gempa Hari Ini', 'KPK', 'Bantuan Sosial Tunai'}, {'Lihat Selengkapnya', 'Lowongan Kerja', 'Cek Fakta Liputan6.com', 'Pos Indonesia', 'Hoaks', 'COVID-19', 'Vaksin Covid-19', 'lowongan kerja', 'PT Pos Indonesia', 'Cek Fakta', 'Hoax'}, {'INFO LOWONGAN KERJA', 'Pos Indonesia', 'Aplikasi PeduliLindungi', 'Tes SKD CPNS', 'PPN Naik', 'PT Pos Indonesia', 'Kartu Prakerja', 'PPKM diperpanjang', 'Bank Kalsel'}, {'Gerakan Nasional Wakaf Uang', 'Lihat Selengkapnya', "Ma'ruf Amin", 'Jokowi', 'Pos Indonesia', "Wapres Ma'ruf Amin", 'COVID-19', 'Wakaf', 'PT Pos Indonesia', 'SEJARAH HARI INI', 'HUT TNI', 'Gempa Hari Ini', 'KPK'}, {'Pos', 'pt pos', 'Lihat Selengkapnya', 'INFO LOWONGAN KERJA', 'BUMN', 'Aplikasi PeduliLindungi', 'Tes SKD CPNS', 'PPN Naik', 'PT Pos Indonesia', 'Erick Thohir', 'Kartu Prakerja', 'PPKM diperpanjang', 'PT Pos'}, {'Lihat Selengkapnya', 'Bansos', 'pt pos', 'bansos', 'Aplikasi PeduliLindungi', 'Bansos Tunai', 'BST', 'Tes SKD CPNS', 'PPN Naik', 'pemulihan ekonomi', 'Pemulihan Ekonomi', 'Kartu Prakerja', 'PPKM diperpanjang', 'INFO LOWONGAN KERJA'}, {'Lihat Selengkapnya', 'Jokowi', 'Pos Indonesia', 'COVID-19', 'BST', 'SEJARAH HARI INI', 'HUT TNI', 'Gempa Hari Ini', 'KPK'}, {'Jokowi', 'COVID-19', 'PT Pos Indonesia', 'SEJARAH HARI INI', 'HUT TNI', 'Gempa Hari Ini', 'KPK'}, {'Jokowi', 'COVID-19', 'PT Pos Indonesia', 'SEJARAH HARI INI', 'HUT TNI', 'Gempa Hari Ini', 'KPK'}, {'Lihat Selengkapnya', 'Cek Fakta Liputan6.com', 'Pos Indonesia', 'Hoaks', 'COVID-19', 'Vaksin Covid-19', 'PT Pos Indonesia', 'Cek Fakta', 'Hoax'}, {'Kriminal', 'Palembang', 'Lihat Selengkapnya', 'pt pos', 'Cek Fakta Liputan6.com', 'Bahasa Daerah', 'Polres Garut', 'Sumsel', 'Lawan Hoaks', 'Tomohon', 'PT Pos Indonesia', 'Cabul', 'Bahasa Palembang', 'HOAX!', 'Persetubuhan'}]</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr"/>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>title</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr"/>
+      <c r="C7" t="inlineStr"/>
+      <c r="D7" t="inlineStr"/>
+      <c r="E7" t="inlineStr"/>
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>['PT Pos Indonesia Optimalkan Penyaluran Bantuan Sosial Tunai di Aceh', 'Permudah Pelaku UMKM, PT Telkom Indonesia Hadirkan Aplikasi BONUM POS', 'Mensos, Mendes, dan Dirut PT Pos Tinjau Penyaluran BST Tahap 8 di Subang', 'Cek Fakta: Hati-Hati Akun Mengatasnamakan PT Pos Indonesia di Medsos', 'PT Pos Indonesia Dipercaya Kembali untuk Salurkan BST sampai Pelosok Negeri', 'Cek Fakta: Tidak Benar Poster Lowongan Kerja PT Pos Indonesia Ini untuk UPT Jawa Timur', 'Gandeng PT Pos Indonesia, Bank Kalsel Ingin Penyaluran Kredit Pensiunan Moncer', "Wapres Ma'ruf Berharap PT Pos Indonesia Jadi Kanal Penerima Wakaf", 'Rombak Direksi PT Pos, Erick Thohir Angkat Perempuan Jadi Direktur', 'Capai 98 Persen, PT Pos Salurkan Bansos Tunai ke 18,8 Juta Penerima Manfaat', 'Komitmen PT Pos Indonesia Mengawal Distribusi Bantuan Sosial Tunai', 'PT Pos Siapkan Sistem untuk Capai Target Inklusi Keuangan 90 Persen di 2024', 'Video: PT Pos Indonesia Ucapkan Selamat Hari Kartini untuk Seluruh Perempuan Hebat Indonesia', 'Waspada, Pesan Berantai Janjikan Hadiah dari PT Pos Indonesia', 'Waspada Be Dulur, Pesen Berantai yang Janjike Hadiah dari PT Pos']</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr"/>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="inlineStr">
+        <is>
+          <t>keyword</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr"/>
+      <c r="C8" t="inlineStr"/>
+      <c r="D8" t="inlineStr"/>
+      <c r="E8" t="inlineStr"/>
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>[[], [], [], [], [], [], [], [], [], [], [], [], [], [], []]</t>
         </is>
       </c>
     </row>
